--- a/Peliculas.xlsx
+++ b/Peliculas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hlocal\Disney\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64162C09-B2EC-4890-9013-78DFFE8A5CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF20246-FA12-4DE2-879C-05D872CBBF4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{21128E47-7C3A-45FF-9750-55D23EE8B8EB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>AliceInWonderland.txt</t>
   </si>
@@ -48,9 +48,6 @@
     <t>IntoTheWoods.txt</t>
   </si>
   <si>
-    <t>SavingMrBanks.txt</t>
-  </si>
-  <si>
     <t>StarWarsEpisodeVIITheForceAwakens.txt</t>
   </si>
   <si>
@@ -207,7 +204,19 @@
     <t>TheAvengersInfinityWar.txt</t>
   </si>
   <si>
-    <t>Deadpool2.txt</t>
+    <t>CampRock.txt</t>
+  </si>
+  <si>
+    <t>IronMan2.txt</t>
+  </si>
+  <si>
+    <t>CampRock2TheFinalJam.txt</t>
+  </si>
+  <si>
+    <t>CaptainAmericaCivilWar.txt</t>
+  </si>
+  <si>
+    <t>AntMan.txt</t>
   </si>
 </sst>
 </file>
@@ -592,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B328E8-A071-4BE9-9335-5F41D8B343AE}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -604,17 +613,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -622,12 +631,12 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
@@ -635,12 +644,12 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
@@ -648,12 +657,12 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
@@ -661,7 +670,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -679,7 +688,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -687,12 +696,12 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -700,12 +709,12 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -713,7 +722,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -724,12 +733,12 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -737,7 +746,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -748,7 +757,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -759,7 +768,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -769,8 +778,8 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -781,7 +790,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -792,7 +801,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -803,7 +812,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -813,8 +822,8 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -825,7 +834,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
@@ -836,7 +845,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
@@ -847,7 +856,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
@@ -858,7 +867,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="7" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
@@ -869,7 +878,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
@@ -880,7 +889,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
@@ -891,7 +900,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="5"/>
@@ -901,7 +910,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="5"/>
@@ -911,7 +920,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
@@ -921,7 +930,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="5"/>
@@ -931,7 +940,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
@@ -940,8 +949,8 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
+      <c r="B30" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
@@ -951,7 +960,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="5"/>
@@ -961,7 +970,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="5"/>
@@ -970,8 +979,8 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>23</v>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -981,7 +990,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -991,7 +1000,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
@@ -1001,7 +1010,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
@@ -1011,7 +1020,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="5"/>
@@ -1021,7 +1030,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="5"/>
@@ -1031,7 +1040,7 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="5"/>
@@ -1041,7 +1050,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="5"/>
@@ -1051,7 +1060,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="5"/>
@@ -1061,7 +1070,7 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="5"/>
@@ -1071,7 +1080,7 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="5"/>
@@ -1081,7 +1090,7 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="5"/>
@@ -1091,7 +1100,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="5"/>
@@ -1101,7 +1110,7 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
@@ -1111,7 +1120,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="5"/>
@@ -1121,7 +1130,7 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="5"/>
@@ -1131,7 +1140,7 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1141,7 +1150,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1151,7 +1160,7 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1161,7 +1170,7 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1171,7 +1180,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1181,7 +1190,7 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1191,7 +1200,7 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1201,7 +1210,7 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1210,7 +1219,9 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -1218,7 +1229,9 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1282,7 +1295,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B65">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="B49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
